--- a/data/pca/factorExposure/factorExposure_2018-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-01-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.005555700016577555</v>
+        <v>0.005678128920938341</v>
       </c>
       <c r="C2">
-        <v>-0.003785210366696438</v>
+        <v>0.02969475809933206</v>
       </c>
       <c r="D2">
-        <v>0.0204004757687384</v>
+        <v>-0.02754296784972436</v>
       </c>
       <c r="E2">
-        <v>-0.04202069050914043</v>
+        <v>0.01856168792215183</v>
       </c>
       <c r="F2">
-        <v>-0.05007931194480061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.04037604318442123</v>
+      </c>
+      <c r="G2">
+        <v>-0.002803559368397349</v>
+      </c>
+      <c r="H2">
+        <v>0.01977438252427054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0662374134072809</v>
+        <v>0.06111467289722917</v>
       </c>
       <c r="C3">
-        <v>0.002335461743083603</v>
+        <v>0.08758217152132156</v>
       </c>
       <c r="D3">
-        <v>-0.03007717093077499</v>
+        <v>-0.01129773260178973</v>
       </c>
       <c r="E3">
-        <v>-0.1727920076109948</v>
+        <v>0.06628255083604032</v>
       </c>
       <c r="F3">
-        <v>-0.2356104208930154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.1029958090194432</v>
+      </c>
+      <c r="G3">
+        <v>-0.05161471146816451</v>
+      </c>
+      <c r="H3">
+        <v>0.04606701637965496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03446612834059174</v>
+        <v>0.04404653038869984</v>
       </c>
       <c r="C4">
-        <v>0.01546662683569324</v>
+        <v>0.05914597194467586</v>
       </c>
       <c r="D4">
-        <v>0.03191906807017701</v>
+        <v>-0.02074811258502453</v>
       </c>
       <c r="E4">
-        <v>-0.005606694149186148</v>
+        <v>-0.001068248450923801</v>
       </c>
       <c r="F4">
-        <v>-0.0536690471512211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03595877914218976</v>
+      </c>
+      <c r="G4">
+        <v>-0.03787844552562971</v>
+      </c>
+      <c r="H4">
+        <v>-0.007174065707043856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.05836858384404411</v>
+        <v>0.02692491427315843</v>
       </c>
       <c r="C6">
-        <v>0.005512015828508478</v>
+        <v>0.05708565072464876</v>
       </c>
       <c r="D6">
-        <v>0.04122935607113846</v>
+        <v>-0.01488478367418208</v>
       </c>
       <c r="E6">
-        <v>-0.002124255147772521</v>
+        <v>-0.001790329420148753</v>
       </c>
       <c r="F6">
-        <v>-0.03918830582249135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.01661362245952046</v>
+      </c>
+      <c r="G6">
+        <v>-0.01794887239453511</v>
+      </c>
+      <c r="H6">
+        <v>-1.814987690332432e-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02643490683015892</v>
+        <v>0.01055290882628379</v>
       </c>
       <c r="C7">
-        <v>0.07021643226501667</v>
+        <v>0.03164035263046514</v>
       </c>
       <c r="D7">
-        <v>0.002832881357492093</v>
+        <v>-0.01210648685145861</v>
       </c>
       <c r="E7">
-        <v>-0.003921178305001894</v>
+        <v>-0.01581779007020364</v>
       </c>
       <c r="F7">
-        <v>-0.01339638906283969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.01941095731404031</v>
+      </c>
+      <c r="G7">
+        <v>-0.06795743688671932</v>
+      </c>
+      <c r="H7">
+        <v>0.03145383872590602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01634107017492728</v>
+        <v>-0.00492601884637307</v>
       </c>
       <c r="C8">
-        <v>0.009877877367741591</v>
+        <v>0.004620952061347863</v>
       </c>
       <c r="D8">
-        <v>0.02241366726853539</v>
+        <v>-0.001890049689222749</v>
       </c>
       <c r="E8">
-        <v>-0.005435162487888912</v>
+        <v>0.006535988557184711</v>
       </c>
       <c r="F8">
-        <v>-0.04838032485086809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02726777475028175</v>
+      </c>
+      <c r="G8">
+        <v>-0.02220636283992193</v>
+      </c>
+      <c r="H8">
+        <v>-0.006433806061377229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02675712282676149</v>
+        <v>0.02182793532292913</v>
       </c>
       <c r="C9">
-        <v>0.01302646085679842</v>
+        <v>0.04128567875197117</v>
       </c>
       <c r="D9">
-        <v>0.02660464593092847</v>
+        <v>-0.01460089749677902</v>
       </c>
       <c r="E9">
-        <v>-0.02941935357176104</v>
+        <v>-0.002277418239492365</v>
       </c>
       <c r="F9">
-        <v>-0.05059069019076304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02739307708834388</v>
+      </c>
+      <c r="G9">
+        <v>-0.02497032886239325</v>
+      </c>
+      <c r="H9">
+        <v>0.01613817399648145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04918656886208275</v>
+        <v>0.1067918023779637</v>
       </c>
       <c r="C10">
-        <v>-0.01148847750338388</v>
+        <v>-0.1736459286194173</v>
       </c>
       <c r="D10">
-        <v>-0.1636167273663719</v>
+        <v>0.02108892608261027</v>
       </c>
       <c r="E10">
-        <v>-0.04750657219902024</v>
+        <v>0.02012937893181582</v>
       </c>
       <c r="F10">
-        <v>0.0002998507985992526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.013632920066607</v>
+      </c>
+      <c r="G10">
+        <v>-0.02561639172280672</v>
+      </c>
+      <c r="H10">
+        <v>0.03620328194256371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02680699509502541</v>
+        <v>0.02598358390994784</v>
       </c>
       <c r="C11">
-        <v>-0.00249451606928561</v>
+        <v>0.05264658370908269</v>
       </c>
       <c r="D11">
-        <v>0.0406570712246307</v>
+        <v>-0.0003870900812125079</v>
       </c>
       <c r="E11">
-        <v>0.002179721274345292</v>
+        <v>-0.006797505513547914</v>
       </c>
       <c r="F11">
-        <v>-0.02033112467707363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03532822890329424</v>
+      </c>
+      <c r="G11">
+        <v>-0.00423212003433586</v>
+      </c>
+      <c r="H11">
+        <v>0.007456509358705181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0349802362578189</v>
+        <v>0.02618628817799503</v>
       </c>
       <c r="C12">
-        <v>0.003500759940175887</v>
+        <v>0.04648216137445542</v>
       </c>
       <c r="D12">
-        <v>0.03941890811460923</v>
+        <v>-0.004734704989868193</v>
       </c>
       <c r="E12">
-        <v>0.01563198748905522</v>
+        <v>-0.01222488619674717</v>
       </c>
       <c r="F12">
-        <v>-0.002354976615175339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01461484328258961</v>
+      </c>
+      <c r="G12">
+        <v>-0.01329737229148929</v>
+      </c>
+      <c r="H12">
+        <v>0.006285447798699265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01482517069902134</v>
+        <v>0.008051245229374766</v>
       </c>
       <c r="C13">
-        <v>-0.001253163017579739</v>
+        <v>0.02917054811926557</v>
       </c>
       <c r="D13">
-        <v>0.01320311877741271</v>
+        <v>-0.02326345966614918</v>
       </c>
       <c r="E13">
-        <v>-0.02208504373690014</v>
+        <v>0.01535001117669397</v>
       </c>
       <c r="F13">
-        <v>-0.05690470738468946</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.04448627114435451</v>
+      </c>
+      <c r="G13">
+        <v>-0.0189693125854135</v>
+      </c>
+      <c r="H13">
+        <v>0.004096335826396885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01365590058988968</v>
+        <v>0.004566776700599318</v>
       </c>
       <c r="C14">
-        <v>0.01541154706787749</v>
+        <v>0.02110710685147084</v>
       </c>
       <c r="D14">
-        <v>0.008416849394810067</v>
+        <v>-0.007692139326460613</v>
       </c>
       <c r="E14">
-        <v>-0.001212130684571138</v>
+        <v>-0.006599746078414586</v>
       </c>
       <c r="F14">
-        <v>-0.04619472160979588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.01202272542034207</v>
+      </c>
+      <c r="G14">
+        <v>-0.03334774846932502</v>
+      </c>
+      <c r="H14">
+        <v>0.0006738475242278047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02560312523682767</v>
+        <v>0.02214845020240125</v>
       </c>
       <c r="C16">
-        <v>0.003223303768184808</v>
+        <v>0.04023611174140596</v>
       </c>
       <c r="D16">
-        <v>0.040784351670263</v>
+        <v>-0.0002227153035849744</v>
       </c>
       <c r="E16">
-        <v>-0.0002302249706450631</v>
+        <v>-0.003182851415193093</v>
       </c>
       <c r="F16">
-        <v>-0.02236899379933105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02382412032404636</v>
+      </c>
+      <c r="G16">
+        <v>-0.009749263163486687</v>
+      </c>
+      <c r="H16">
+        <v>0.006254896519172189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.02817476675298644</v>
+        <v>0.02192818842715636</v>
       </c>
       <c r="C19">
-        <v>0.000991840335818818</v>
+        <v>0.04785606320606697</v>
       </c>
       <c r="D19">
-        <v>0.03196389828396135</v>
+        <v>-0.01335456604872355</v>
       </c>
       <c r="E19">
-        <v>-0.01000676032068794</v>
+        <v>0.02632430902038624</v>
       </c>
       <c r="F19">
-        <v>-0.08386366835232752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.05757188328551543</v>
+      </c>
+      <c r="G19">
+        <v>-0.03175152643538123</v>
+      </c>
+      <c r="H19">
+        <v>-0.003273110389949763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0003086564596986787</v>
+        <v>0.004959359456368718</v>
       </c>
       <c r="C20">
-        <v>0.004610758512657478</v>
+        <v>0.0270429982995716</v>
       </c>
       <c r="D20">
-        <v>0.002086425450088715</v>
+        <v>-0.0120090426067576</v>
       </c>
       <c r="E20">
-        <v>-0.01981679408952206</v>
+        <v>0.01599571062530063</v>
       </c>
       <c r="F20">
-        <v>-0.03265318307756918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02184761488376233</v>
+      </c>
+      <c r="G20">
+        <v>-0.02080749590865749</v>
+      </c>
+      <c r="H20">
+        <v>0.004194536471588709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03343882098388413</v>
+        <v>0.006320276188757698</v>
       </c>
       <c r="C21">
-        <v>0.02138205536547711</v>
+        <v>0.02929733118276348</v>
       </c>
       <c r="D21">
-        <v>0.01785223865374439</v>
+        <v>-0.01505955958175965</v>
       </c>
       <c r="E21">
-        <v>-0.007562078666017955</v>
+        <v>0.01863937810040736</v>
       </c>
       <c r="F21">
-        <v>-0.03617056486122967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.03817549512392318</v>
+      </c>
+      <c r="G21">
+        <v>-0.04010935992934322</v>
+      </c>
+      <c r="H21">
+        <v>0.01623790184322048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02441980323254223</v>
+        <v>0.01781874241183397</v>
       </c>
       <c r="C24">
-        <v>0.0009525086869932484</v>
+        <v>0.0433634512874542</v>
       </c>
       <c r="D24">
-        <v>0.03257502184182368</v>
+        <v>-0.005364583816812877</v>
       </c>
       <c r="E24">
-        <v>-0.0005405332312889921</v>
+        <v>-0.009012117327051849</v>
       </c>
       <c r="F24">
-        <v>-0.01628792999867829</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02867253757795819</v>
+      </c>
+      <c r="G24">
+        <v>-0.005094939504322752</v>
+      </c>
+      <c r="H24">
+        <v>0.01335832945120276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03588307313973153</v>
+        <v>0.03476533806375512</v>
       </c>
       <c r="C25">
-        <v>-0.0005646242151353279</v>
+        <v>0.05311623901565585</v>
       </c>
       <c r="D25">
-        <v>0.03227208508544586</v>
+        <v>-0.009025860056154401</v>
       </c>
       <c r="E25">
-        <v>-0.009081334444233213</v>
+        <v>-0.01649352536167511</v>
       </c>
       <c r="F25">
-        <v>-0.03097795206766586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.0250848945470954</v>
+      </c>
+      <c r="G25">
+        <v>-0.01510711174361292</v>
+      </c>
+      <c r="H25">
+        <v>0.004134929697737174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.001295523414735669</v>
+        <v>0.0009374179403044139</v>
       </c>
       <c r="C26">
-        <v>0.009977433456960559</v>
+        <v>0.002423789555112222</v>
       </c>
       <c r="D26">
-        <v>0.00841685422154146</v>
+        <v>-0.02321517083565476</v>
       </c>
       <c r="E26">
-        <v>-0.02544530684034258</v>
+        <v>0.001083424491132812</v>
       </c>
       <c r="F26">
-        <v>-0.02479059745011583</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01471143067056454</v>
+      </c>
+      <c r="G26">
+        <v>-0.01861928392399164</v>
+      </c>
+      <c r="H26">
+        <v>0.007953598112538629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.001327730952650471</v>
+        <v>0.0008350887394956645</v>
       </c>
       <c r="C27">
-        <v>0.0005625245387916824</v>
+        <v>-0.000627038703387817</v>
       </c>
       <c r="D27">
-        <v>-0.004988607192969197</v>
+        <v>0.0007081096678581845</v>
       </c>
       <c r="E27">
-        <v>0.01295536397380312</v>
+        <v>6.312943743482894e-06</v>
       </c>
       <c r="F27">
-        <v>-0.01534724795137813</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.0009455514460935062</v>
+      </c>
+      <c r="G27">
+        <v>-0.004527999179795295</v>
+      </c>
+      <c r="H27">
+        <v>-0.008891889917403318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.08488059749208773</v>
+        <v>0.1415442419727963</v>
       </c>
       <c r="C28">
-        <v>-0.01872056067666037</v>
+        <v>-0.2091976434302517</v>
       </c>
       <c r="D28">
-        <v>-0.2378032622734473</v>
+        <v>0.01348223232443381</v>
       </c>
       <c r="E28">
-        <v>-0.05997562638073222</v>
+        <v>0.01175813284302567</v>
       </c>
       <c r="F28">
-        <v>0.01090236920757874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.01345124710481527</v>
+      </c>
+      <c r="G28">
+        <v>-0.04167735543539891</v>
+      </c>
+      <c r="H28">
+        <v>0.03711933501699955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01462955853506361</v>
+        <v>0.009174723931957689</v>
       </c>
       <c r="C29">
-        <v>0.01142323567644358</v>
+        <v>0.01750260265684433</v>
       </c>
       <c r="D29">
-        <v>0.00786788222532472</v>
+        <v>-0.006598162678261866</v>
       </c>
       <c r="E29">
-        <v>0.000297391456502208</v>
+        <v>-0.005382509339974324</v>
       </c>
       <c r="F29">
-        <v>-0.0469382567317733</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.006890399928724053</v>
+      </c>
+      <c r="G29">
+        <v>-0.02910804308950538</v>
+      </c>
+      <c r="H29">
+        <v>-0.005234316886640862</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.03873102050962366</v>
+        <v>0.02969930722582105</v>
       </c>
       <c r="C30">
-        <v>-0.04695887333171947</v>
+        <v>0.07611568983410569</v>
       </c>
       <c r="D30">
-        <v>0.05744609960213368</v>
+        <v>-0.0255696303324407</v>
       </c>
       <c r="E30">
-        <v>-0.01368863276881072</v>
+        <v>0.0137670679716175</v>
       </c>
       <c r="F30">
-        <v>-0.09368226503209919</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.05653885008554405</v>
+      </c>
+      <c r="G30">
+        <v>0.007844745911345905</v>
+      </c>
+      <c r="H30">
+        <v>-0.02338965977749034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04839139093460333</v>
+        <v>0.03410243278293915</v>
       </c>
       <c r="C31">
-        <v>0.01115827635393827</v>
+        <v>0.02145180555994172</v>
       </c>
       <c r="D31">
-        <v>0.0164584544180316</v>
+        <v>-0.001722988909175279</v>
       </c>
       <c r="E31">
-        <v>0.01070496389343761</v>
+        <v>-0.01262052062611994</v>
       </c>
       <c r="F31">
-        <v>-0.02734704749157742</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01651728014112116</v>
+      </c>
+      <c r="G31">
+        <v>-0.02343186599601173</v>
+      </c>
+      <c r="H31">
+        <v>0.005671126535875491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0003789484115592239</v>
+        <v>0.0003723475217451094</v>
       </c>
       <c r="C32">
-        <v>0.02867442237839188</v>
+        <v>0.02647261003706948</v>
       </c>
       <c r="D32">
-        <v>0.02594178182129309</v>
+        <v>0.006052635901916206</v>
       </c>
       <c r="E32">
-        <v>0.01259269798820085</v>
+        <v>0.01030353974405205</v>
       </c>
       <c r="F32">
-        <v>-0.05694027615892274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.09148428472815312</v>
+      </c>
+      <c r="G32">
+        <v>-0.0428063696295917</v>
+      </c>
+      <c r="H32">
+        <v>-0.01354035099731169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02969011009752367</v>
+        <v>0.02206745294375616</v>
       </c>
       <c r="C33">
-        <v>-0.01913967247558615</v>
+        <v>0.04988573519510477</v>
       </c>
       <c r="D33">
-        <v>0.03324524964393124</v>
+        <v>-0.01274475488578069</v>
       </c>
       <c r="E33">
-        <v>-0.0244090750446076</v>
+        <v>0.01207839592420996</v>
       </c>
       <c r="F33">
-        <v>-0.04755977691761889</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.03351843236754296</v>
+      </c>
+      <c r="G33">
+        <v>-0.007828540845496643</v>
+      </c>
+      <c r="H33">
+        <v>0.01767485176038805</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02648988868330194</v>
+        <v>0.03570997312366253</v>
       </c>
       <c r="C34">
-        <v>0.01072829175629318</v>
+        <v>0.05481725606638018</v>
       </c>
       <c r="D34">
-        <v>0.0409750764924292</v>
+        <v>0.007062887392205712</v>
       </c>
       <c r="E34">
-        <v>0.002976588904206045</v>
+        <v>-0.01759341003355152</v>
       </c>
       <c r="F34">
-        <v>-0.02563825209231695</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03114781702777875</v>
+      </c>
+      <c r="G34">
+        <v>-0.01868078854993041</v>
+      </c>
+      <c r="H34">
+        <v>0.009502138743928676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01089456919334491</v>
+        <v>0.008705051928835675</v>
       </c>
       <c r="C36">
-        <v>0.005483258894324251</v>
+        <v>0.000234825842850407</v>
       </c>
       <c r="D36">
-        <v>0.001426065538986662</v>
+        <v>-0.01023708003134276</v>
       </c>
       <c r="E36">
-        <v>-0.006844329836627756</v>
+        <v>-0.000684619699789706</v>
       </c>
       <c r="F36">
-        <v>-0.02268552930303458</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.007814395101340651</v>
+      </c>
+      <c r="G36">
+        <v>-0.0123270913116141</v>
+      </c>
+      <c r="H36">
+        <v>0.009124768270876353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02027617774822996</v>
+        <v>0.02614128453747512</v>
       </c>
       <c r="C38">
-        <v>-0.003627390033613466</v>
+        <v>0.0200788707253481</v>
       </c>
       <c r="D38">
-        <v>0.006623692546853219</v>
+        <v>0.009021818172482566</v>
       </c>
       <c r="E38">
-        <v>-0.02568212126916066</v>
+        <v>-0.004106605444759338</v>
       </c>
       <c r="F38">
-        <v>-0.04897610052398819</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01395001125620485</v>
+      </c>
+      <c r="G38">
+        <v>-0.01857035373987433</v>
+      </c>
+      <c r="H38">
+        <v>0.003484064086883832</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02057803227334377</v>
+        <v>0.01750025849772576</v>
       </c>
       <c r="C39">
-        <v>0.008967914136966914</v>
+        <v>0.08288328884309269</v>
       </c>
       <c r="D39">
-        <v>0.0619654257287307</v>
+        <v>-0.0109509699292561</v>
       </c>
       <c r="E39">
-        <v>-0.01412646245291021</v>
+        <v>0.0023350376484435</v>
       </c>
       <c r="F39">
-        <v>-0.05300365937518427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05061812828093953</v>
+      </c>
+      <c r="G39">
+        <v>-0.006334335592605624</v>
+      </c>
+      <c r="H39">
+        <v>0.01720800049488329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.02544219982819476</v>
+        <v>0.01695122323206602</v>
       </c>
       <c r="C40">
-        <v>-0.0004716989129366832</v>
+        <v>0.02874352942854033</v>
       </c>
       <c r="D40">
-        <v>0.0427935334159605</v>
+        <v>-0.01143723278944977</v>
       </c>
       <c r="E40">
-        <v>-0.01289011682717061</v>
+        <v>0.004626184349524445</v>
       </c>
       <c r="F40">
-        <v>-0.02060028219812378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0333160079428609</v>
+      </c>
+      <c r="G40">
+        <v>-0.008244499438838697</v>
+      </c>
+      <c r="H40">
+        <v>0.015418848797218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.009133461225333863</v>
+        <v>0.01065411605879916</v>
       </c>
       <c r="C41">
-        <v>-0.001259530596428572</v>
+        <v>-0.007472452769446413</v>
       </c>
       <c r="D41">
-        <v>-0.01026658732071857</v>
+        <v>-0.002631950635113337</v>
       </c>
       <c r="E41">
-        <v>-0.009751905643879571</v>
+        <v>-0.006982320230749852</v>
       </c>
       <c r="F41">
-        <v>-0.004950325406773609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003563285822902953</v>
+      </c>
+      <c r="G41">
+        <v>-0.005415456121594562</v>
+      </c>
+      <c r="H41">
+        <v>0.00756011373772445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2107459019373218</v>
+        <v>0.04438268244493124</v>
       </c>
       <c r="C42">
-        <v>-0.1540294746516862</v>
+        <v>0.09409809216218198</v>
       </c>
       <c r="D42">
-        <v>0.2039478152656106</v>
+        <v>-0.1181672153651959</v>
       </c>
       <c r="E42">
-        <v>-0.6481152505162144</v>
+        <v>0.1043170685822253</v>
       </c>
       <c r="F42">
-        <v>0.6347476666895322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.3083489370101399</v>
+      </c>
+      <c r="G42">
+        <v>0.4468026846683598</v>
+      </c>
+      <c r="H42">
+        <v>0.801587050086259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.01535365535566516</v>
+        <v>0.0229629840291319</v>
       </c>
       <c r="C43">
-        <v>-0.004730654438139961</v>
+        <v>0.001252463828101089</v>
       </c>
       <c r="D43">
-        <v>-0.009123462283608481</v>
+        <v>-0.002403795648196491</v>
       </c>
       <c r="E43">
-        <v>-0.0140069681279974</v>
+        <v>-0.003463094894787818</v>
       </c>
       <c r="F43">
-        <v>-0.01121764761044917</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01167274421129367</v>
+      </c>
+      <c r="G43">
+        <v>-0.005298730379434</v>
+      </c>
+      <c r="H43">
+        <v>0.01180175577073687</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.008578456909914654</v>
+        <v>0.01003769218228442</v>
       </c>
       <c r="C44">
-        <v>0.01187605332006621</v>
+        <v>0.0461656181751799</v>
       </c>
       <c r="D44">
-        <v>0.0181385404007572</v>
+        <v>-0.005823470382411927</v>
       </c>
       <c r="E44">
-        <v>-0.03412125166596583</v>
+        <v>0.0138535139493693</v>
       </c>
       <c r="F44">
-        <v>-0.07029903746439609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03431988178358384</v>
+      </c>
+      <c r="G44">
+        <v>-0.02248375055497593</v>
+      </c>
+      <c r="H44">
+        <v>0.02199305163490975</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01442489650263078</v>
+        <v>-0.0001972493075363053</v>
       </c>
       <c r="C46">
-        <v>0.002842210201836072</v>
+        <v>0.01221244047966988</v>
       </c>
       <c r="D46">
-        <v>0.03684184230875573</v>
+        <v>-0.01102728204656838</v>
       </c>
       <c r="E46">
-        <v>-0.010304168587534</v>
+        <v>-0.003741548177522874</v>
       </c>
       <c r="F46">
-        <v>-0.07089386473000925</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.00175240840847541</v>
+      </c>
+      <c r="G46">
+        <v>-0.02003085028038508</v>
+      </c>
+      <c r="H46">
+        <v>-0.004511917897514961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07199635654169986</v>
+        <v>0.05776745768099028</v>
       </c>
       <c r="C47">
-        <v>-0.005075599751399255</v>
+        <v>0.05491522417149548</v>
       </c>
       <c r="D47">
-        <v>0.02047959138315534</v>
+        <v>0.006227559770844832</v>
       </c>
       <c r="E47">
-        <v>0.03274563448162727</v>
+        <v>-0.01412286699138202</v>
       </c>
       <c r="F47">
-        <v>0.001619308708461724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04765427934212402</v>
+      </c>
+      <c r="G47">
+        <v>-0.02104476954756808</v>
+      </c>
+      <c r="H47">
+        <v>-0.006601509707265892</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02113871418891772</v>
+        <v>0.01097003211037984</v>
       </c>
       <c r="C48">
-        <v>0.00429220490513927</v>
+        <v>0.005886278822238984</v>
       </c>
       <c r="D48">
-        <v>0.005235698368202218</v>
+        <v>-0.000342185282032228</v>
       </c>
       <c r="E48">
-        <v>-0.004059946242130207</v>
+        <v>-0.005899838863296936</v>
       </c>
       <c r="F48">
-        <v>-0.02562930741045966</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006621281551709287</v>
+      </c>
+      <c r="G48">
+        <v>-0.01718359264690891</v>
+      </c>
+      <c r="H48">
+        <v>0.003122584964349672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08035264005815203</v>
+        <v>0.0624073825420223</v>
       </c>
       <c r="C50">
-        <v>0.02339684110976703</v>
+        <v>0.05444197475345699</v>
       </c>
       <c r="D50">
-        <v>0.04033517230008136</v>
+        <v>0.004963905661107865</v>
       </c>
       <c r="E50">
-        <v>0.009139682772442728</v>
+        <v>-0.01197512437789861</v>
       </c>
       <c r="F50">
-        <v>-0.02320859221955544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03929434267763314</v>
+      </c>
+      <c r="G50">
+        <v>-0.04538542370383349</v>
+      </c>
+      <c r="H50">
+        <v>0.008188743446156228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.00899277872292272</v>
+        <v>0.01041204131880227</v>
       </c>
       <c r="C51">
-        <v>0.007306798772673583</v>
+        <v>0.02254102649237011</v>
       </c>
       <c r="D51">
-        <v>-0.01563679800772249</v>
+        <v>-0.008002845841237491</v>
       </c>
       <c r="E51">
-        <v>-0.03903420467564898</v>
+        <v>0.00092764147440153</v>
       </c>
       <c r="F51">
-        <v>-0.06606565455377535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.04534812375878625</v>
+      </c>
+      <c r="G51">
+        <v>-0.0256338630885591</v>
+      </c>
+      <c r="H51">
+        <v>0.02422083978633693</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1042825148615297</v>
+        <v>0.08159034303006971</v>
       </c>
       <c r="C53">
-        <v>0.006287610297632178</v>
+        <v>0.08082981414186545</v>
       </c>
       <c r="D53">
-        <v>0.04775233068468807</v>
+        <v>0.006818230809447131</v>
       </c>
       <c r="E53">
-        <v>0.0563116709542126</v>
+        <v>-0.03910867271726817</v>
       </c>
       <c r="F53">
-        <v>0.01090844442268908</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.06185766245290608</v>
+      </c>
+      <c r="G53">
+        <v>-0.02428053239097965</v>
+      </c>
+      <c r="H53">
+        <v>-0.002008655276804726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02282779963893211</v>
+        <v>0.024491196576126</v>
       </c>
       <c r="C54">
-        <v>0.008932028098958817</v>
+        <v>-0.0003895754793762077</v>
       </c>
       <c r="D54">
-        <v>-0.0007429908667190694</v>
+        <v>0.005391710303420939</v>
       </c>
       <c r="E54">
-        <v>0.01339198753899163</v>
+        <v>-0.0006321119756687556</v>
       </c>
       <c r="F54">
-        <v>-0.03456890016391145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.009774576198660311</v>
+      </c>
+      <c r="G54">
+        <v>-0.0259113293039794</v>
+      </c>
+      <c r="H54">
+        <v>7.503430680618164e-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.07611618780385523</v>
+        <v>0.05807210436926454</v>
       </c>
       <c r="C55">
-        <v>0.0002596880121575616</v>
+        <v>0.06931820542117512</v>
       </c>
       <c r="D55">
-        <v>0.06364419539116971</v>
+        <v>0.005422002823287949</v>
       </c>
       <c r="E55">
-        <v>0.03076592009445879</v>
+        <v>-0.02881284526312201</v>
       </c>
       <c r="F55">
-        <v>0.01230886193756696</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.05738417484348905</v>
+      </c>
+      <c r="G55">
+        <v>-0.01252101472817407</v>
+      </c>
+      <c r="H55">
+        <v>-0.004979544205905278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1446010634871807</v>
+        <v>0.1242345663156175</v>
       </c>
       <c r="C56">
-        <v>-0.003083519229058352</v>
+        <v>0.1119410078434808</v>
       </c>
       <c r="D56">
-        <v>0.06848881168384</v>
+        <v>0.01541035541284038</v>
       </c>
       <c r="E56">
-        <v>0.07916177662975631</v>
+        <v>-0.04011921324202948</v>
       </c>
       <c r="F56">
-        <v>0.03862629016720922</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.1025627177592621</v>
+      </c>
+      <c r="G56">
+        <v>-0.009445477349273687</v>
+      </c>
+      <c r="H56">
+        <v>-0.02433969850816849</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03478486692632971</v>
+        <v>0.01503610633843324</v>
       </c>
       <c r="C57">
-        <v>-0.009349599681613859</v>
+        <v>0.01564064752610593</v>
       </c>
       <c r="D57">
-        <v>0.01627607633537393</v>
+        <v>-0.0235576873571092</v>
       </c>
       <c r="E57">
-        <v>-0.04254889514162281</v>
+        <v>0.03158008496811348</v>
       </c>
       <c r="F57">
-        <v>-0.03395729092858119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.0257284762290292</v>
+      </c>
+      <c r="G57">
+        <v>-0.0200798635921954</v>
+      </c>
+      <c r="H57">
+        <v>0.01115580899517209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1893852566320753</v>
+        <v>0.07671106453666671</v>
       </c>
       <c r="C58">
-        <v>-0.1356570733799199</v>
+        <v>0.115098141428083</v>
       </c>
       <c r="D58">
-        <v>0.1535685935405568</v>
+        <v>-0.0180138314384744</v>
       </c>
       <c r="E58">
-        <v>-0.4141708319799834</v>
+        <v>0.9553706331262417</v>
       </c>
       <c r="F58">
-        <v>-0.5495981850860827</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.1136104601684089</v>
+      </c>
+      <c r="G58">
+        <v>-0.1086224041531118</v>
+      </c>
+      <c r="H58">
+        <v>-0.1240991360004958</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.08399741594277334</v>
+        <v>0.1748836762522558</v>
       </c>
       <c r="C59">
-        <v>-0.03751553258605091</v>
+        <v>-0.1981695105980453</v>
       </c>
       <c r="D59">
-        <v>-0.2012420416341112</v>
+        <v>0.0214756919227129</v>
       </c>
       <c r="E59">
-        <v>-0.04440779362717531</v>
+        <v>0.013397639767061</v>
       </c>
       <c r="F59">
-        <v>-0.0401562931954805</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01370887003634905</v>
+      </c>
+      <c r="G59">
+        <v>-0.01992970171305849</v>
+      </c>
+      <c r="H59">
+        <v>0.01039115148010904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2013565905868333</v>
+        <v>0.2967954263532828</v>
       </c>
       <c r="C60">
-        <v>-0.04755297407639066</v>
+        <v>0.1090858535915791</v>
       </c>
       <c r="D60">
-        <v>-0.02977023341948281</v>
+        <v>0.002803487096836063</v>
       </c>
       <c r="E60">
-        <v>-0.07097845888670964</v>
+        <v>-0.02870543619978056</v>
       </c>
       <c r="F60">
-        <v>-0.1008354405550248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.3648420096566785</v>
+      </c>
+      <c r="G60">
+        <v>0.08680124635734573</v>
+      </c>
+      <c r="H60">
+        <v>0.02480465350391631</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02834533278764546</v>
+        <v>0.02198873839197205</v>
       </c>
       <c r="C61">
-        <v>0.003592828713589031</v>
+        <v>0.06573844821217689</v>
       </c>
       <c r="D61">
-        <v>0.05227469400858911</v>
+        <v>-0.004140895305800517</v>
       </c>
       <c r="E61">
-        <v>-0.006055119562417972</v>
+        <v>-0.002849447555971235</v>
       </c>
       <c r="F61">
-        <v>-0.02941007232898313</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03686525594111499</v>
+      </c>
+      <c r="G61">
+        <v>-0.01055907301852676</v>
+      </c>
+      <c r="H61">
+        <v>0.007502684612601201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01331468805800843</v>
+        <v>0.008300644234090803</v>
       </c>
       <c r="C63">
-        <v>0.007128907250959746</v>
+        <v>0.02858439882129609</v>
       </c>
       <c r="D63">
-        <v>0.02387416545312706</v>
+        <v>-0.007460751176593505</v>
       </c>
       <c r="E63">
-        <v>-0.0008179137204752881</v>
+        <v>-0.01442853810172199</v>
       </c>
       <c r="F63">
-        <v>-0.01195006343116654</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.001705082605747386</v>
+      </c>
+      <c r="G63">
+        <v>-0.02149139621970346</v>
+      </c>
+      <c r="H63">
+        <v>0.0002188590459218299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0446066444745552</v>
+        <v>0.04220378851018632</v>
       </c>
       <c r="C64">
-        <v>0.001704510735145718</v>
+        <v>0.03943513663984703</v>
       </c>
       <c r="D64">
-        <v>0.02989935882854234</v>
+        <v>-0.003060819305523993</v>
       </c>
       <c r="E64">
-        <v>-7.223897507577103e-05</v>
+        <v>-0.01971741328666916</v>
       </c>
       <c r="F64">
-        <v>-0.02460187516854085</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.01381938817433645</v>
+      </c>
+      <c r="G64">
+        <v>-0.004775927191102735</v>
+      </c>
+      <c r="H64">
+        <v>0.02445128387289119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06492389498000406</v>
+        <v>0.07198915417515626</v>
       </c>
       <c r="C65">
-        <v>0.005875056136171802</v>
+        <v>0.07990785034039553</v>
       </c>
       <c r="D65">
-        <v>0.04392303213292101</v>
+        <v>-0.01334159738395593</v>
       </c>
       <c r="E65">
-        <v>0.003161753347516</v>
+        <v>-0.009430590589011582</v>
       </c>
       <c r="F65">
-        <v>-0.03600119902215149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.03626595892738522</v>
+      </c>
+      <c r="G65">
+        <v>-0.008809733108848075</v>
+      </c>
+      <c r="H65">
+        <v>-0.01036322565180825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04464890921885931</v>
+        <v>0.03655656197393711</v>
       </c>
       <c r="C66">
-        <v>-0.008926456388041203</v>
+        <v>0.1231875805385746</v>
       </c>
       <c r="D66">
-        <v>0.07233154831699486</v>
+        <v>-0.009346095429510289</v>
       </c>
       <c r="E66">
-        <v>0.02467910836157041</v>
+        <v>-0.0001025175454451247</v>
       </c>
       <c r="F66">
-        <v>-0.06893770300846556</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06212885276341842</v>
+      </c>
+      <c r="G66">
+        <v>-0.004931159215822285</v>
+      </c>
+      <c r="H66">
+        <v>-0.01136400914826065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.03447600291829892</v>
+        <v>0.04976356567883473</v>
       </c>
       <c r="C67">
-        <v>-0.007151249052605327</v>
+        <v>0.02697466857319067</v>
       </c>
       <c r="D67">
-        <v>0.0006802844140146338</v>
+        <v>0.007893182815516127</v>
       </c>
       <c r="E67">
-        <v>-0.008643060542621438</v>
+        <v>-0.009438593706946</v>
       </c>
       <c r="F67">
-        <v>-0.03905097407506335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01420476159155867</v>
+      </c>
+      <c r="G67">
+        <v>-0.01981609703915846</v>
+      </c>
+      <c r="H67">
+        <v>-0.003101534050960051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.08385039666480673</v>
+        <v>0.1628662642373011</v>
       </c>
       <c r="C68">
-        <v>-0.03788169847740364</v>
+        <v>-0.2383164212471132</v>
       </c>
       <c r="D68">
-        <v>-0.2235146455542139</v>
+        <v>0.002971886662919138</v>
       </c>
       <c r="E68">
-        <v>-0.03833746638961365</v>
+        <v>0.01789866619048582</v>
       </c>
       <c r="F68">
-        <v>-0.003366094264446592</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02247805180392395</v>
+      </c>
+      <c r="G68">
+        <v>-0.01709951408211033</v>
+      </c>
+      <c r="H68">
+        <v>0.02319515380147508</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05463444932287899</v>
+        <v>0.05799520424134376</v>
       </c>
       <c r="C69">
-        <v>-0.0037668413757438</v>
+        <v>0.0518963145840799</v>
       </c>
       <c r="D69">
-        <v>0.02993932732279758</v>
+        <v>0.01050422554244664</v>
       </c>
       <c r="E69">
-        <v>0.02998646160702016</v>
+        <v>-0.02905188787358129</v>
       </c>
       <c r="F69">
-        <v>-0.01204701375349881</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01772624421691075</v>
+      </c>
+      <c r="G69">
+        <v>-0.01469170613582542</v>
+      </c>
+      <c r="H69">
+        <v>-0.007976008034985846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07932523173946938</v>
+        <v>0.1504876854451962</v>
       </c>
       <c r="C71">
-        <v>-0.02371978483847909</v>
+        <v>-0.2046375087470983</v>
       </c>
       <c r="D71">
-        <v>-0.2197473837129382</v>
+        <v>0.009820059669756393</v>
       </c>
       <c r="E71">
-        <v>-0.0815181125197872</v>
+        <v>0.02930146218841055</v>
       </c>
       <c r="F71">
-        <v>0.02580425689417216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02697882000071902</v>
+      </c>
+      <c r="G71">
+        <v>-0.02359834729587319</v>
+      </c>
+      <c r="H71">
+        <v>0.04750912925534308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1089898354386779</v>
+        <v>0.07548451585402313</v>
       </c>
       <c r="C72">
-        <v>-0.004450014009543808</v>
+        <v>0.09055273549804878</v>
       </c>
       <c r="D72">
-        <v>0.1021176645845359</v>
+        <v>0.01229458209225787</v>
       </c>
       <c r="E72">
-        <v>0.008378499651727182</v>
+        <v>-0.02525516182688437</v>
       </c>
       <c r="F72">
-        <v>-0.1451721558494368</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.04253864834440142</v>
+      </c>
+      <c r="G72">
+        <v>-0.00260326948569765</v>
+      </c>
+      <c r="H72">
+        <v>-0.02732905691561678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2397605409493085</v>
+        <v>0.3998992293574912</v>
       </c>
       <c r="C73">
-        <v>-0.1066120523593519</v>
+        <v>0.1684089045460644</v>
       </c>
       <c r="D73">
-        <v>0.0003597421583522667</v>
+        <v>-0.00187827863778488</v>
       </c>
       <c r="E73">
-        <v>-0.1432891123617484</v>
+        <v>0.01028341488448322</v>
       </c>
       <c r="F73">
-        <v>-0.1045895767008488</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.488738791385298</v>
+      </c>
+      <c r="G73">
+        <v>0.1449562095813361</v>
+      </c>
+      <c r="H73">
+        <v>0.08277255460065813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1338826145094549</v>
+        <v>0.1027046172455939</v>
       </c>
       <c r="C74">
-        <v>-0.009883697689635013</v>
+        <v>0.1189295474378907</v>
       </c>
       <c r="D74">
-        <v>0.06717753564123694</v>
+        <v>0.01242475664040878</v>
       </c>
       <c r="E74">
-        <v>0.07562524379938174</v>
+        <v>-0.04218248788099469</v>
       </c>
       <c r="F74">
-        <v>0.03301585324446792</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.08138317473901197</v>
+      </c>
+      <c r="G74">
+        <v>-0.02174903952109126</v>
+      </c>
+      <c r="H74">
+        <v>-0.01004775108585991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.271277363672372</v>
+        <v>0.2313704739138619</v>
       </c>
       <c r="C75">
-        <v>-0.02933731699387487</v>
+        <v>0.178587435015248</v>
       </c>
       <c r="D75">
-        <v>0.0926882223252896</v>
+        <v>0.03292601212077901</v>
       </c>
       <c r="E75">
-        <v>0.1667110888114693</v>
+        <v>-0.06002509163696531</v>
       </c>
       <c r="F75">
-        <v>0.02748377523771148</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.2205512169633999</v>
+      </c>
+      <c r="G75">
+        <v>-0.0120063452174629</v>
+      </c>
+      <c r="H75">
+        <v>-0.07333829063937934</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2714063389470511</v>
+        <v>0.1463990438848252</v>
       </c>
       <c r="C76">
-        <v>-0.009643256271236668</v>
+        <v>0.1442944986091811</v>
       </c>
       <c r="D76">
-        <v>0.1098953278661786</v>
+        <v>0.0266886380751172</v>
       </c>
       <c r="E76">
-        <v>0.2081549793657405</v>
+        <v>-0.07029643279555305</v>
       </c>
       <c r="F76">
-        <v>0.07966950378422648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1743028359489296</v>
+      </c>
+      <c r="G76">
+        <v>-0.03165502126644015</v>
+      </c>
+      <c r="H76">
+        <v>-0.04831794791649403</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07574451762128637</v>
+        <v>0.04781823736591923</v>
       </c>
       <c r="C77">
-        <v>-0.01119054249093755</v>
+        <v>0.06876977571313218</v>
       </c>
       <c r="D77">
-        <v>0.07063605684185521</v>
+        <v>-0.01281841371228066</v>
       </c>
       <c r="E77">
-        <v>-0.1142040602931926</v>
+        <v>0.03311595855619722</v>
       </c>
       <c r="F77">
-        <v>-0.02004168265574916</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.005874812094704743</v>
+      </c>
+      <c r="G77">
+        <v>-0.01857270903246829</v>
+      </c>
+      <c r="H77">
+        <v>0.03761032705520938</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03587569682213378</v>
+        <v>0.03468972590567118</v>
       </c>
       <c r="C78">
-        <v>0.005674271251872761</v>
+        <v>0.05744799345418378</v>
       </c>
       <c r="D78">
-        <v>0.05328513904862445</v>
+        <v>-0.004443895385528297</v>
       </c>
       <c r="E78">
-        <v>-0.02369798069061008</v>
+        <v>0.01473162535412157</v>
       </c>
       <c r="F78">
-        <v>-0.07229069452079194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05385300143052819</v>
+      </c>
+      <c r="G78">
+        <v>-0.01508421244242125</v>
+      </c>
+      <c r="H78">
+        <v>0.005183768818342885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2373585608997673</v>
+        <v>0.05871288321124094</v>
       </c>
       <c r="C80">
-        <v>0.9403943204484149</v>
+        <v>0.09039691167663642</v>
       </c>
       <c r="D80">
-        <v>-0.07912297883962942</v>
+        <v>-0.01164620445649327</v>
       </c>
       <c r="E80">
-        <v>-0.1538166586709523</v>
+        <v>-0.06882486489715314</v>
       </c>
       <c r="F80">
-        <v>0.01894624687988061</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.01104654454243895</v>
+      </c>
+      <c r="G80">
+        <v>-0.8390345955892359</v>
+      </c>
+      <c r="H80">
+        <v>0.4492403065263105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.2127559664985034</v>
+        <v>0.1395297944677756</v>
       </c>
       <c r="C81">
-        <v>-0.01284840921540111</v>
+        <v>0.1051169679512025</v>
       </c>
       <c r="D81">
-        <v>0.06664229721280603</v>
+        <v>0.0198525565545045</v>
       </c>
       <c r="E81">
-        <v>0.1379231059403859</v>
+        <v>-0.03887743357592839</v>
       </c>
       <c r="F81">
-        <v>-0.003402963747015679</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1451287064293763</v>
+      </c>
+      <c r="G81">
+        <v>-0.02949826479051055</v>
+      </c>
+      <c r="H81">
+        <v>-0.03551128936577741</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.02535234061935802</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.01997821275174047</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002088777205077624</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.01828329696400388</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.01083538557137859</v>
+      </c>
+      <c r="G82">
+        <v>-0.0005047399335932257</v>
+      </c>
+      <c r="H82">
+        <v>-0.005188882280946734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03224537230070035</v>
+        <v>0.02332812520325565</v>
       </c>
       <c r="C83">
-        <v>-0.007058213396626081</v>
+        <v>0.01824849347346397</v>
       </c>
       <c r="D83">
-        <v>0.005694446450720917</v>
+        <v>-0.004634489880430788</v>
       </c>
       <c r="E83">
-        <v>-0.03698236682654497</v>
+        <v>0.02014838028976203</v>
       </c>
       <c r="F83">
-        <v>-0.03340829876067947</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.03208585621414594</v>
+      </c>
+      <c r="G83">
+        <v>-0.01910120668357959</v>
+      </c>
+      <c r="H83">
+        <v>0.01241751227712702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2597435603601969</v>
+        <v>0.2232852466683183</v>
       </c>
       <c r="C85">
-        <v>-0.03862573638721348</v>
+        <v>0.1935546345795363</v>
       </c>
       <c r="D85">
-        <v>0.1134920837006497</v>
+        <v>0.02202989405917693</v>
       </c>
       <c r="E85">
-        <v>0.1849319647833595</v>
+        <v>-0.09596780462842915</v>
       </c>
       <c r="F85">
-        <v>0.05192007953043894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.2302625515729619</v>
+      </c>
+      <c r="G85">
+        <v>0.02895089565377856</v>
+      </c>
+      <c r="H85">
+        <v>-0.1004208304477981</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006695660956402221</v>
+        <v>0.005289846049137325</v>
       </c>
       <c r="C86">
-        <v>0.009578592998557933</v>
+        <v>0.02942645290253074</v>
       </c>
       <c r="D86">
-        <v>0.03838430733555915</v>
+        <v>-0.009104517515156238</v>
       </c>
       <c r="E86">
-        <v>-0.02659895373219399</v>
+        <v>0.009175970229734912</v>
       </c>
       <c r="F86">
-        <v>-0.06965578566573614</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02862041799924933</v>
+      </c>
+      <c r="G86">
+        <v>-0.03535438244930449</v>
+      </c>
+      <c r="H86">
+        <v>0.04054345727155697</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02884957468751007</v>
+        <v>0.01030087492431214</v>
       </c>
       <c r="C87">
-        <v>0.006762653907991571</v>
+        <v>0.02423941702457236</v>
       </c>
       <c r="D87">
-        <v>0.0294518510910767</v>
+        <v>-0.01039769104566172</v>
       </c>
       <c r="E87">
-        <v>-0.05681224860438125</v>
+        <v>0.0712864390915621</v>
       </c>
       <c r="F87">
-        <v>-0.09374184442750694</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.08260054143421794</v>
+      </c>
+      <c r="G87">
+        <v>-0.0220306834781209</v>
+      </c>
+      <c r="H87">
+        <v>0.03301998272933948</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.04318861778375852</v>
+        <v>0.0669991178980695</v>
       </c>
       <c r="C88">
-        <v>-0.008752074052886916</v>
+        <v>0.04102158963866485</v>
       </c>
       <c r="D88">
-        <v>-0.003947481486681469</v>
+        <v>-0.01936675880059059</v>
       </c>
       <c r="E88">
-        <v>0.001080846676185417</v>
+        <v>-0.01192373209094028</v>
       </c>
       <c r="F88">
-        <v>0.006986978829579138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0260771545219241</v>
+      </c>
+      <c r="G88">
+        <v>-0.01145275433608618</v>
+      </c>
+      <c r="H88">
+        <v>-0.004988474661053447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1403979679488797</v>
+        <v>0.2539045097356846</v>
       </c>
       <c r="C89">
-        <v>-0.07329432171145243</v>
+        <v>-0.3515804605787085</v>
       </c>
       <c r="D89">
-        <v>-0.3795226008080351</v>
+        <v>0.01554155281490805</v>
       </c>
       <c r="E89">
-        <v>-0.006983074297463333</v>
+        <v>0.00550830481733497</v>
       </c>
       <c r="F89">
-        <v>-0.03442474323982422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01766576187460314</v>
+      </c>
+      <c r="G89">
+        <v>-0.01821775482332974</v>
+      </c>
+      <c r="H89">
+        <v>0.0005923561256354245</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08521901149948888</v>
+        <v>0.2125377616373739</v>
       </c>
       <c r="C90">
-        <v>-0.06678349430679678</v>
+        <v>-0.3224260942967465</v>
       </c>
       <c r="D90">
-        <v>-0.3440369438732704</v>
+        <v>0.01618645077131135</v>
       </c>
       <c r="E90">
-        <v>-0.01318479214377041</v>
+        <v>0.01621166762622274</v>
       </c>
       <c r="F90">
-        <v>0.02661903416877559</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.0464619668638387</v>
+      </c>
+      <c r="G90">
+        <v>0.0009578791628394013</v>
+      </c>
+      <c r="H90">
+        <v>0.007084714393889672</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2968570190226094</v>
+        <v>0.1971779432276413</v>
       </c>
       <c r="C91">
-        <v>-0.03830181883804269</v>
+        <v>0.1428589137084691</v>
       </c>
       <c r="D91">
-        <v>0.1274452148041187</v>
+        <v>0.02905416194059893</v>
       </c>
       <c r="E91">
-        <v>0.199545833683135</v>
+        <v>-0.0747632154511567</v>
       </c>
       <c r="F91">
-        <v>0.1330452569947048</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2139986536220146</v>
+      </c>
+      <c r="G91">
+        <v>-0.01154219117266394</v>
+      </c>
+      <c r="H91">
+        <v>-0.05119975559145089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.2097730761603896</v>
+        <v>0.2325378227478282</v>
       </c>
       <c r="C92">
-        <v>-0.07746358865342218</v>
+        <v>-0.25057703871265</v>
       </c>
       <c r="D92">
-        <v>-0.3765669011716552</v>
+        <v>0.05799824191256713</v>
       </c>
       <c r="E92">
-        <v>0.08390076300938919</v>
+        <v>0.02401634286368241</v>
       </c>
       <c r="F92">
-        <v>0.02228976349854371</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1308670338205548</v>
+      </c>
+      <c r="G92">
+        <v>-0.06305555288949995</v>
+      </c>
+      <c r="H92">
+        <v>-0.02268925053184175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.1337610160709125</v>
+        <v>0.2433769511328751</v>
       </c>
       <c r="C93">
-        <v>-0.09454361774773899</v>
+        <v>-0.3105403365077211</v>
       </c>
       <c r="D93">
-        <v>-0.3933124000754617</v>
+        <v>0.02384861582590632</v>
       </c>
       <c r="E93">
-        <v>-0.04766501322565947</v>
+        <v>0.0256979765087495</v>
       </c>
       <c r="F93">
-        <v>0.05496327562176787</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0206955396453474</v>
+      </c>
+      <c r="G93">
+        <v>0.01447256646022032</v>
+      </c>
+      <c r="H93">
+        <v>0.03140081998898731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3248365148072505</v>
+        <v>0.251935701095144</v>
       </c>
       <c r="C94">
-        <v>-0.07077144839180911</v>
+        <v>0.1685055744039307</v>
       </c>
       <c r="D94">
-        <v>0.08483239665636157</v>
+        <v>0.01734930534790008</v>
       </c>
       <c r="E94">
-        <v>0.2364808018748417</v>
+        <v>-0.08699627538626316</v>
       </c>
       <c r="F94">
-        <v>0.01678092022424991</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.3397462740540681</v>
+      </c>
+      <c r="G94">
+        <v>0.02901929180602366</v>
+      </c>
+      <c r="H94">
+        <v>-0.2605986595897561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06098044236498773</v>
+        <v>0.070829820354332</v>
       </c>
       <c r="C95">
-        <v>-0.07283527804037568</v>
+        <v>0.1085820588851541</v>
       </c>
       <c r="D95">
-        <v>0.03153753108151618</v>
+        <v>0.00927441221848182</v>
       </c>
       <c r="E95">
-        <v>0.04504032493806658</v>
+        <v>0.05450384009849989</v>
       </c>
       <c r="F95">
-        <v>-0.06731577613150594</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1330982165056748</v>
+      </c>
+      <c r="G95">
+        <v>0.06644167265540796</v>
+      </c>
+      <c r="H95">
+        <v>-0.02098353592243803</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1902555221727026</v>
+        <v>0.2157221103455985</v>
       </c>
       <c r="C98">
-        <v>-0.06597160498727186</v>
+        <v>0.06571273296179779</v>
       </c>
       <c r="D98">
-        <v>-0.03693866504313798</v>
+        <v>0.02500119712651134</v>
       </c>
       <c r="E98">
-        <v>-0.1381760484281658</v>
+        <v>0.03947585980970404</v>
       </c>
       <c r="F98">
-        <v>-0.1152708626736033</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2471951874225261</v>
+      </c>
+      <c r="G98">
+        <v>0.07395883680109709</v>
+      </c>
+      <c r="H98">
+        <v>0.08311820826725805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003405321709091123</v>
+        <v>0.004093877405920462</v>
       </c>
       <c r="C101">
-        <v>0.005355964850502891</v>
+        <v>0.01839660167889984</v>
       </c>
       <c r="D101">
-        <v>0.02775906184892809</v>
+        <v>-0.007429044614343947</v>
       </c>
       <c r="E101">
-        <v>-0.06206229901083309</v>
+        <v>0.0305687447088567</v>
       </c>
       <c r="F101">
-        <v>-0.1888355246222347</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01048261429153653</v>
+      </c>
+      <c r="G101">
+        <v>-0.03956137302355334</v>
+      </c>
+      <c r="H101">
+        <v>-0.02274590020478474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1425715774926884</v>
+        <v>0.1150263044387145</v>
       </c>
       <c r="C102">
-        <v>-0.01580530138042877</v>
+        <v>0.0889823501872867</v>
       </c>
       <c r="D102">
-        <v>0.04753657847825467</v>
+        <v>0.002506731088959113</v>
       </c>
       <c r="E102">
-        <v>0.0921265198545297</v>
+        <v>-0.04970447381429378</v>
       </c>
       <c r="F102">
-        <v>0.05860360913832115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.07791016302695838</v>
+      </c>
+      <c r="G102">
+        <v>0.002788004795456513</v>
+      </c>
+      <c r="H102">
+        <v>-0.02070944516828117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04263155287135051</v>
+        <v>0.008092601182003259</v>
       </c>
       <c r="C103">
-        <v>0.01341471049875571</v>
+        <v>0.008121347552333236</v>
       </c>
       <c r="D103">
-        <v>0.01667189389978537</v>
+        <v>0.000110233805758308</v>
       </c>
       <c r="E103">
-        <v>0.01751681686748562</v>
+        <v>-0.0008377586103392627</v>
       </c>
       <c r="F103">
-        <v>-0.0008971941081506019</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.0148394289308281</v>
+      </c>
+      <c r="G103">
+        <v>-0.01639410859700072</v>
+      </c>
+      <c r="H103">
+        <v>0.006012270017233333</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.06335993892365249</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04623164448257342</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.9835840893307815</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04182792929446025</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.01318470079084135</v>
+      </c>
+      <c r="G104">
+        <v>-0.03881978972724313</v>
+      </c>
+      <c r="H104">
+        <v>-0.1135897175049767</v>
       </c>
     </row>
   </sheetData>
